--- a/spec/ASW/Eng/Fuel/Rail/RailP/RailP_DD/RailP_DD.xlsx
+++ b/spec/ASW/Eng/Fuel/Rail/RailP/RailP_DD/RailP_DD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\Rail\RailP\RailP_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0361E16-493A-43C5-A1F0-81D07C634ADA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,146 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailP_uRaw</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Raw value of rail pressure</t>
+  </si>
+  <si>
+    <t>DSM_bRailPSS</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Status of FId_RailPSS</t>
+  </si>
+  <si>
+    <t>RailP_uRawSens_mp</t>
+  </si>
+  <si>
+    <t>Raw value of rail pressure before Peak Selection</t>
+  </si>
+  <si>
+    <t>RailP_pLin</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>Fuel pressure</t>
+  </si>
+  <si>
+    <t>RailP_bFinalDef</t>
+  </si>
+  <si>
+    <t>Status of final default</t>
+  </si>
+  <si>
+    <t>RailP_bProvDef</t>
+  </si>
+  <si>
+    <t>Status of provisional default</t>
+  </si>
+  <si>
+    <t>RailP_bSRCMaxDeb_DSM</t>
+  </si>
+  <si>
+    <t>The debounce result of SRC</t>
+  </si>
+  <si>
+    <t>RailP_bSRCMinDeb_DSM</t>
+  </si>
+  <si>
+    <t>RailP_bSRCMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The result of the signal range check </t>
+  </si>
+  <si>
+    <t>RailP_bSRCMin</t>
+  </si>
+  <si>
+    <t>RailP_pLin_base</t>
+  </si>
+  <si>
+    <t>Fuel pressure from curve</t>
+  </si>
+  <si>
+    <t>RailP_uSRCMax_C</t>
+  </si>
+  <si>
+    <t>Threshold for SRC -Max detection</t>
+  </si>
+  <si>
+    <t>RailP_uSRCMin_C</t>
+  </si>
+  <si>
+    <t>Threshold for SRC -Min detection</t>
+  </si>
+  <si>
+    <t>RailP_pLin_CUR</t>
+  </si>
+  <si>
+    <t>[0 0 0 2250]</t>
+  </si>
+  <si>
+    <t>Linearisation curve for fuel pressure sensor</t>
+  </si>
+  <si>
+    <t>RailP_pLin_CURX</t>
+  </si>
+  <si>
+    <t>[0 500 1006 4501]</t>
+  </si>
+  <si>
+    <t>RailP_tiSRCMaxDefDeb_C</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Debounce time for checking defect of RailP_bSRCMaxDeb</t>
+  </si>
+  <si>
+    <t>RailP_tiSRCMaxOKDeb_C</t>
+  </si>
+  <si>
+    <t>Debounce time for checking heal of RailP_bSRCMaxDeb</t>
+  </si>
+  <si>
+    <t>RailP_tiSRCMinDefDeb_C</t>
+  </si>
+  <si>
+    <t>Debounce time for checking defect of RailP_bSRCMinDeb</t>
+  </si>
+  <si>
+    <t>RailP_tiSRCMinOKDeb_C</t>
+  </si>
+  <si>
+    <t>Debounce time for checking heal of RailP_bSRCMinDeb</t>
+  </si>
+  <si>
+    <t>Volt_mV</t>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
+  </si>
+  <si>
+    <t>[1 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_bar1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +641,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +769,124 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +939,78 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1022,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,17 +1062,213 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4700</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>131</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="6"/>
@@ -729,7 +1330,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/spec/ASW/Eng/Fuel/Rail/RailP/RailP_DD/RailP_DD.xlsx
+++ b/spec/ASW/Eng/Fuel/Rail/RailP/RailP_DD/RailP_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Fuel\Rail\RailP\RailP_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0361E16-493A-43C5-A1F0-81D07C634ADA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9463A4-8AC5-4257-BEF9-23181E6CB06A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Raw value of rail pressure before Peak Selection</t>
   </si>
   <si>
-    <t>RailP_pLin</t>
-  </si>
-  <si>
     <t>bar</t>
   </si>
   <si>
@@ -157,18 +154,9 @@
     <t>Threshold for SRC -Min detection</t>
   </si>
   <si>
-    <t>RailP_pLin_CUR</t>
-  </si>
-  <si>
-    <t>[0 0 0 2250]</t>
-  </si>
-  <si>
     <t>Linearisation curve for fuel pressure sensor</t>
   </si>
   <si>
-    <t>RailP_pLin_CURX</t>
-  </si>
-  <si>
     <t>[0 500 1006 4501]</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
   </si>
   <si>
     <t>Debounce time for checking heal of RailP_bSRCMinDeb</t>
-  </si>
-  <si>
-    <t>Volt_mV</t>
   </si>
   <si>
     <t>Debncd_ms</t>
@@ -210,6 +195,25 @@
   </si>
   <si>
     <t>Press_bar1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
+  </si>
+  <si>
+    <t>RailP_pLin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailP_pLin_CUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailP_pLin_CURX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 0 0 2000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -710,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -728,7 +732,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,33 +775,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -815,12 +819,12 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -838,12 +842,12 @@
         <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -861,12 +865,12 @@
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -884,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +903,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -941,7 +945,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -959,12 +963,12 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -982,33 +986,33 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1021,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1068,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1082,15 +1086,15 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1108,41 +1112,41 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1151,16 +1155,16 @@
         <v>5000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
@@ -1168,13 +1172,13 @@
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -1183,24 +1187,24 @@
         <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -1209,24 +1213,24 @@
         <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1235,24 +1239,24 @@
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -1261,13 +1265,13 @@
         <v>200</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1330,7 +1334,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
